--- a/data/Electricity_consumption(extracted).xlsx
+++ b/data/Electricity_consumption(extracted).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamwatanabe/Desktop/R_stats/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamwatanabe/Desktop/Rstatistics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D973149B-6222-2749-B03F-957527AB4FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F60DEC-BE63-B041-B9F1-19CC161B55C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="6780" windowWidth="32140" windowHeight="20280" xr2:uid="{CF363331-40E2-844D-94BB-672B57EA75B3}"/>
+    <workbookView xWindow="4200" yWindow="500" windowWidth="37580" windowHeight="22460" xr2:uid="{CF363331-40E2-844D-94BB-672B57EA75B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
   <si>
     <t>BAYSIDE*</t>
   </si>
@@ -177,6 +173,24 @@
   </si>
   <si>
     <t>2022-M</t>
+  </si>
+  <si>
+    <t>2021-RP</t>
+  </si>
+  <si>
+    <t>2019-RP</t>
+  </si>
+  <si>
+    <t>2019-MP</t>
+  </si>
+  <si>
+    <t>2021-MP</t>
+  </si>
+  <si>
+    <t>2019-LP</t>
+  </si>
+  <si>
+    <t>2021-LP</t>
   </si>
 </sst>
 </file>
@@ -222,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -287,12 +301,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -304,6 +338,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 4" xfId="1" xr:uid="{52EA59AB-58F9-1D41-86DF-F67501556043}"/>
@@ -619,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCB078F-7AB5-AE46-91AB-2EDF690E996D}">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,7 +671,7 @@
     <col min="13" max="13" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -682,8 +720,26 @@
       <c r="P1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,8 +788,26 @@
       <c r="P2" s="9">
         <v>209244.81400000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="2">
+        <v>66977.682191780827</v>
+      </c>
+      <c r="R2" s="2">
+        <v>68385.284931506845</v>
+      </c>
+      <c r="S2" s="11">
+        <v>5967.9095890410981</v>
+      </c>
+      <c r="T2" s="11">
+        <v>6232.3013698630111</v>
+      </c>
+      <c r="U2" s="11">
+        <v>471.51232876712334</v>
+      </c>
+      <c r="V2" s="13">
+        <v>450.8082191780822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -782,8 +856,26 @@
       <c r="P3" s="9">
         <v>1793038.388</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="2">
+        <v>14555.216438356161</v>
+      </c>
+      <c r="R3" s="2">
+        <v>14750.816438356163</v>
+      </c>
+      <c r="S3" s="12">
+        <v>1813.550684931507</v>
+      </c>
+      <c r="T3" s="12">
+        <v>1606.3534246575341</v>
+      </c>
+      <c r="U3" s="12">
+        <v>109.60273972602739</v>
+      </c>
+      <c r="V3" s="14">
+        <v>115.3041095890411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -832,8 +924,26 @@
       <c r="P4" s="9">
         <v>89681.485000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="2">
+        <v>38052.553424657541</v>
+      </c>
+      <c r="R4" s="2">
+        <v>38539.441095890412</v>
+      </c>
+      <c r="S4" s="12">
+        <v>2899.0986301369858</v>
+      </c>
+      <c r="T4" s="12">
+        <v>2859.0164383561632</v>
+      </c>
+      <c r="U4" s="12">
+        <v>225.75616438356158</v>
+      </c>
+      <c r="V4" s="14">
+        <v>216.36438356164382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -882,8 +992,26 @@
       <c r="P5" s="9">
         <v>238096.01300000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="2">
+        <v>129997.91780821918</v>
+      </c>
+      <c r="R5" s="2">
+        <v>132350.37534246576</v>
+      </c>
+      <c r="S5" s="12">
+        <v>11800.989041095896</v>
+      </c>
+      <c r="T5" s="12">
+        <v>11897.021917808212</v>
+      </c>
+      <c r="U5" s="12">
+        <v>739.51780821917805</v>
+      </c>
+      <c r="V5" s="14">
+        <v>713.01643835616449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -932,8 +1060,26 @@
       <c r="P6" s="9">
         <v>46838.542999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="2">
+        <v>151040.20273972602</v>
+      </c>
+      <c r="R6" s="2">
+        <v>23331.860273972601</v>
+      </c>
+      <c r="S6" s="12">
+        <v>11905.22191780822</v>
+      </c>
+      <c r="T6" s="12">
+        <v>2648.1287671232872</v>
+      </c>
+      <c r="U6" s="12">
+        <v>721.58630136986289</v>
+      </c>
+      <c r="V6" s="14">
+        <v>230.86027397260276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -982,8 +1128,26 @@
       <c r="P7" s="9">
         <v>491939.86599999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2">
+        <v>24125.490410958904</v>
+      </c>
+      <c r="R7" s="2">
+        <v>58544.72054794521</v>
+      </c>
+      <c r="S7" s="12">
+        <v>1808.9726027397262</v>
+      </c>
+      <c r="T7" s="12">
+        <v>5457.5397260273949</v>
+      </c>
+      <c r="U7" s="12">
+        <v>133.88493150684934</v>
+      </c>
+      <c r="V7" s="14">
+        <v>238.3369863013699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1196,26 @@
       <c r="P8" s="9">
         <v>69937.008000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2">
+        <v>23048.868493150687</v>
+      </c>
+      <c r="R8" s="2">
+        <v>53071.024657534232</v>
+      </c>
+      <c r="S8" s="12">
+        <v>2604.7369863013696</v>
+      </c>
+      <c r="T8" s="12">
+        <v>4227.5808219178089</v>
+      </c>
+      <c r="U8" s="12">
+        <v>240.05205479452056</v>
+      </c>
+      <c r="V8" s="14">
+        <v>249.56438356164381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1082,8 +1264,26 @@
       <c r="P9" s="9">
         <v>191488.261</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="2">
+        <v>57591.4</v>
+      </c>
+      <c r="R9" s="2">
+        <v>5597.3315068493148</v>
+      </c>
+      <c r="S9" s="12">
+        <v>5381.3589041095884</v>
+      </c>
+      <c r="T9" s="12">
+        <v>443.29863013698633</v>
+      </c>
+      <c r="U9" s="12">
+        <v>229.25479452054793</v>
+      </c>
+      <c r="V9" s="14">
+        <v>25.602739726027398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1132,8 +1332,26 @@
       <c r="P10" s="9">
         <v>85092.358999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="2">
+        <v>52572.271232876716</v>
+      </c>
+      <c r="R10" s="2">
+        <v>85270.704109589031</v>
+      </c>
+      <c r="S10" s="12">
+        <v>4131.1068493150688</v>
+      </c>
+      <c r="T10" s="12">
+        <v>8709.3726027397242</v>
+      </c>
+      <c r="U10" s="12">
+        <v>261.39452054794521</v>
+      </c>
+      <c r="V10" s="14">
+        <v>431.88219178082193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1182,8 +1400,26 @@
       <c r="P11" s="9">
         <v>17787.922999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="2">
+        <v>5527.3369863013695</v>
+      </c>
+      <c r="R11" s="2">
+        <v>44944.364383561646</v>
+      </c>
+      <c r="S11" s="12">
+        <v>425.04383561643834</v>
+      </c>
+      <c r="T11" s="12">
+        <v>2716.391780821918</v>
+      </c>
+      <c r="U11" s="12">
+        <v>27</v>
+      </c>
+      <c r="V11" s="14">
+        <v>170.29589041095889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1232,8 +1468,26 @@
       <c r="P12" s="9">
         <v>259378.674</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="2">
+        <v>84325.810958904069</v>
+      </c>
+      <c r="R12" s="2">
+        <v>16532.041095890407</v>
+      </c>
+      <c r="S12" s="12">
+        <v>8701.7205479452077</v>
+      </c>
+      <c r="T12" s="12">
+        <v>1596.6191780821919</v>
+      </c>
+      <c r="U12" s="12">
+        <v>452.6520547945205</v>
+      </c>
+      <c r="V12" s="14">
+        <v>135.8931506849315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1282,8 +1536,26 @@
       <c r="P13" s="9">
         <v>86315.456000000006</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="2">
+        <v>44235.589041095889</v>
+      </c>
+      <c r="R13" s="2">
+        <v>14120.77808219178</v>
+      </c>
+      <c r="S13" s="12">
+        <v>2632.8191780821917</v>
+      </c>
+      <c r="T13" s="12">
+        <v>1219.6904109589043</v>
+      </c>
+      <c r="U13" s="12">
+        <v>173.53424657534248</v>
+      </c>
+      <c r="V13" s="14">
+        <v>47.095890410958901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1332,8 +1604,26 @@
       <c r="P14" s="9">
         <v>30960.920999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="2">
+        <v>85588.926027397305</v>
+      </c>
+      <c r="R14" s="2">
+        <v>39708.279452054798</v>
+      </c>
+      <c r="S14" s="12">
+        <v>6618.7534246575333</v>
+      </c>
+      <c r="T14" s="12">
+        <v>6305.495890410959</v>
+      </c>
+      <c r="U14" s="12">
+        <v>396.03561643835616</v>
+      </c>
+      <c r="V14" s="14">
+        <v>353.06027397260272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1382,8 +1672,26 @@
       <c r="P15" s="9">
         <v>8599.2790000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="2">
+        <v>15729.668493150684</v>
+      </c>
+      <c r="R15" s="2">
+        <v>107533.9643835617</v>
+      </c>
+      <c r="S15" s="12">
+        <v>1489.5452054794528</v>
+      </c>
+      <c r="T15" s="12">
+        <v>11281.632876712329</v>
+      </c>
+      <c r="U15" s="12">
+        <v>136.69041095890412</v>
+      </c>
+      <c r="V15" s="14">
+        <v>507.70958904109597</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1420,8 +1728,26 @@
       <c r="L16" s="9">
         <v>265675.84560999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q16" s="2">
+        <v>32731.03287671235</v>
+      </c>
+      <c r="R16" s="2">
+        <v>20543.534246575346</v>
+      </c>
+      <c r="S16" s="12">
+        <v>2886.9917808219179</v>
+      </c>
+      <c r="T16" s="12">
+        <v>1752.5315068493151</v>
+      </c>
+      <c r="U16" s="12">
+        <v>186.2027397260274</v>
+      </c>
+      <c r="V16" s="14">
+        <v>334.04657534246576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1458,8 +1784,26 @@
       <c r="L17" s="9">
         <v>175400.52962000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q17" s="2">
+        <v>14075.753424657532</v>
+      </c>
+      <c r="R17" s="2">
+        <v>62211.558904109603</v>
+      </c>
+      <c r="S17" s="12">
+        <v>1219.4684931506852</v>
+      </c>
+      <c r="T17" s="12">
+        <v>3520.1041095890419</v>
+      </c>
+      <c r="U17" s="12">
+        <v>57.301369863013697</v>
+      </c>
+      <c r="V17" s="14">
+        <v>240.59452054794519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1496,8 +1840,26 @@
       <c r="L18" s="9">
         <v>391837.96305999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q18" s="2">
+        <v>7246.1178082191773</v>
+      </c>
+      <c r="R18" s="2">
+        <v>50784.939726027413</v>
+      </c>
+      <c r="S18" s="12">
+        <v>1349.9589041095892</v>
+      </c>
+      <c r="T18" s="12">
+        <v>4257.7315068493144</v>
+      </c>
+      <c r="U18" s="12">
+        <v>58.536986301369865</v>
+      </c>
+      <c r="V18" s="14">
+        <v>556.52602739726024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1534,8 +1896,26 @@
       <c r="L19" s="9">
         <v>113686.89933000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q19" s="2">
+        <v>71728.394520547939</v>
+      </c>
+      <c r="R19" s="2">
+        <v>15969.983561643836</v>
+      </c>
+      <c r="S19" s="12">
+        <v>7865.4219178082176</v>
+      </c>
+      <c r="T19" s="12">
+        <v>1671.2136986301368</v>
+      </c>
+      <c r="U19" s="12">
+        <v>513.72054794520545</v>
+      </c>
+      <c r="V19" s="14">
+        <v>185.49315068493152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1572,8 +1952,26 @@
       <c r="L20" s="9">
         <v>215467.92838999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q20" s="2">
+        <v>39478.043835616423</v>
+      </c>
+      <c r="R20" s="2">
+        <v>90023.495890410879</v>
+      </c>
+      <c r="S20" s="12">
+        <v>6160.520547945207</v>
+      </c>
+      <c r="T20" s="12">
+        <v>8119.7698630136993</v>
+      </c>
+      <c r="U20" s="12">
+        <v>391.23561643835615</v>
+      </c>
+      <c r="V20" s="14">
+        <v>362.55890410958904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1610,8 +2008,26 @@
       <c r="L21" s="9">
         <v>1866640.5050899999</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q21" s="2">
+        <v>106646.23013698627</v>
+      </c>
+      <c r="R21" s="2">
+        <v>114385.28493150689</v>
+      </c>
+      <c r="S21" s="12">
+        <v>11082.205479452055</v>
+      </c>
+      <c r="T21" s="12">
+        <v>31356.591780821927</v>
+      </c>
+      <c r="U21" s="12">
+        <v>522.93150684931504</v>
+      </c>
+      <c r="V21" s="14">
+        <v>2631.6547945205484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,8 +2064,26 @@
       <c r="L22" s="9">
         <v>95555.019379999983</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q22" s="2">
+        <v>19487.336986301372</v>
+      </c>
+      <c r="R22" s="2">
+        <v>34491.717808219175</v>
+      </c>
+      <c r="S22" s="12">
+        <v>1713.3863013698628</v>
+      </c>
+      <c r="T22" s="12">
+        <v>2726.9013698630115</v>
+      </c>
+      <c r="U22" s="12">
+        <v>330.1369863013698</v>
+      </c>
+      <c r="V22" s="14">
+        <v>161.97260273972603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1686,8 +2120,26 @@
       <c r="L23" s="9">
         <v>248920.68501000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q23" s="2">
+        <v>34180.284931506838</v>
+      </c>
+      <c r="R23" s="2">
+        <v>31531.97260273973</v>
+      </c>
+      <c r="S23" s="12">
+        <v>2920.3424657534242</v>
+      </c>
+      <c r="T23" s="12">
+        <v>5071.0767123287669</v>
+      </c>
+      <c r="U23" s="12">
+        <v>191.98904109589043</v>
+      </c>
+      <c r="V23" s="14">
+        <v>338.19726027397257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1724,8 +2176,26 @@
       <c r="L24" s="9">
         <v>48143.455790000007</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q24" s="2">
+        <v>61783.334246575345</v>
+      </c>
+      <c r="R24" s="2">
+        <v>28153.863013698632</v>
+      </c>
+      <c r="S24" s="12">
+        <v>3497.5479452054792</v>
+      </c>
+      <c r="T24" s="12">
+        <v>2865.3287671232874</v>
+      </c>
+      <c r="U24" s="12">
+        <v>255.7232876712329</v>
+      </c>
+      <c r="V24" s="14">
+        <v>106.66849315068494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1762,8 +2232,26 @@
       <c r="L25" s="9">
         <v>507257.0021199999</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q25" s="2">
+        <v>50126.649315068498</v>
+      </c>
+      <c r="R25" s="2">
+        <v>153585.66575342458</v>
+      </c>
+      <c r="S25" s="12">
+        <v>4144.4082191780817</v>
+      </c>
+      <c r="T25" s="12">
+        <v>12157.939726027407</v>
+      </c>
+      <c r="U25" s="12">
+        <v>554.12602739726026</v>
+      </c>
+      <c r="V25" s="14">
+        <v>709.72328767123281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1800,8 +2288,26 @@
       <c r="L26" s="9">
         <v>73069.189059999975</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q26" s="2">
+        <v>9787.7397260273974</v>
+      </c>
+      <c r="R26" s="2">
+        <v>25466.775342465742</v>
+      </c>
+      <c r="S26" s="12">
+        <v>1688.4328767123288</v>
+      </c>
+      <c r="T26" s="12">
+        <v>1843.1068493150688</v>
+      </c>
+      <c r="U26" s="12">
+        <v>92.863013698630141</v>
+      </c>
+      <c r="V26" s="14">
+        <v>135.12328767123287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1838,8 +2344,26 @@
       <c r="L27" s="9">
         <v>189172.40851999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q27" s="2">
+        <v>15763.95890410959</v>
+      </c>
+      <c r="R27" s="2">
+        <v>87604.465753424665</v>
+      </c>
+      <c r="S27" s="12">
+        <v>1573.3315068493152</v>
+      </c>
+      <c r="T27" s="12">
+        <v>6795.5726027397222</v>
+      </c>
+      <c r="U27" s="12">
+        <v>182.50958904109592</v>
+      </c>
+      <c r="V27" s="14">
+        <v>391.95890410958907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1876,8 +2400,26 @@
       <c r="L28" s="9">
         <v>91106.934469999993</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q28" s="2">
+        <v>88287.608219178059</v>
+      </c>
+      <c r="R28" s="2">
+        <v>34799.79726027399</v>
+      </c>
+      <c r="S28" s="12">
+        <v>7833.9287671232896</v>
+      </c>
+      <c r="T28" s="12">
+        <v>2959.7342465753431</v>
+      </c>
+      <c r="U28" s="12">
+        <v>364.41095890410963</v>
+      </c>
+      <c r="V28" s="14">
+        <v>170.60273972602735</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -1914,8 +2456,26 @@
       <c r="L29" s="9">
         <v>19973.426880000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q29" s="2">
+        <v>112490.64931506847</v>
+      </c>
+      <c r="R29" s="2">
+        <v>7288.5671232876712</v>
+      </c>
+      <c r="S29" s="12">
+        <v>31233.734246575335</v>
+      </c>
+      <c r="T29" s="12">
+        <v>1347.0821917808221</v>
+      </c>
+      <c r="U29" s="12">
+        <v>2805.2575342465761</v>
+      </c>
+      <c r="V29" s="14">
+        <v>52.008219178082193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1952,8 +2512,26 @@
       <c r="L30" s="9">
         <v>263849.58008000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q30" s="2">
+        <v>5736.7780821917804</v>
+      </c>
+      <c r="R30" s="2">
+        <v>73207.901369863001</v>
+      </c>
+      <c r="S30" s="12">
+        <v>1244.7780821917809</v>
+      </c>
+      <c r="T30" s="12">
+        <v>8035.9232876712322</v>
+      </c>
+      <c r="U30" s="12">
+        <v>34.961643835616442</v>
+      </c>
+      <c r="V30" s="14">
+        <v>515.24109589041097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1990,8 +2568,26 @@
       <c r="L31" s="9">
         <v>89789.91025000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q31" s="2">
+        <v>34174.293150684927</v>
+      </c>
+      <c r="R31" s="2">
+        <v>35107.934246575351</v>
+      </c>
+      <c r="S31" s="12">
+        <v>2712.9150684931515</v>
+      </c>
+      <c r="T31" s="12">
+        <v>2985.6657534246574</v>
+      </c>
+      <c r="U31" s="12">
+        <v>163.44657534246574</v>
+      </c>
+      <c r="V31" s="14">
+        <v>194.47123287671232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2028,8 +2624,26 @@
       <c r="L32" s="9">
         <v>32676.203140000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q32" s="2">
+        <v>31228.789041095886</v>
+      </c>
+      <c r="R32" s="2">
+        <v>9977.2712328767157</v>
+      </c>
+      <c r="S32" s="12">
+        <v>5009.2794520547941</v>
+      </c>
+      <c r="T32" s="12">
+        <v>1676.9342465753427</v>
+      </c>
+      <c r="U32" s="12">
+        <v>354.83287671232875</v>
+      </c>
+      <c r="V32" s="14">
+        <v>92.0027397260274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2066,8 +2680,26 @@
       <c r="L33" s="9">
         <v>8937.4913000000015</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q33" s="2">
+        <v>27907.282191780821</v>
+      </c>
+      <c r="R33" s="2">
+        <v>5798.7890410958898</v>
+      </c>
+      <c r="S33" s="12">
+        <v>2891.1726027397258</v>
+      </c>
+      <c r="T33" s="12">
+        <v>1251.331506849315</v>
+      </c>
+      <c r="U33" s="12">
+        <v>109.89589041095891</v>
+      </c>
+      <c r="V33" s="14">
+        <v>26.515068493150686</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
     </row>
   </sheetData>
